--- a/InitData/t_regioncity.xlsx
+++ b/InitData/t_regioncity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="392">
   <si>
     <t>id</t>
   </si>
@@ -351,9 +351,6 @@
     <t>宿州市</t>
   </si>
   <si>
-    <t>巢湖市</t>
-  </si>
-  <si>
     <t>六安市</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>日照市</t>
   </si>
   <si>
-    <t>莱芜市</t>
-  </si>
-  <si>
     <t>临沂市</t>
   </si>
   <si>
@@ -474,7 +468,7 @@
     <t>滨州市</t>
   </si>
   <si>
-    <t>荷泽市</t>
+    <t>菏泽市</t>
   </si>
   <si>
     <t>郑州市</t>
@@ -528,6 +522,9 @@
     <t>驻马店市</t>
   </si>
   <si>
+    <t>济源市</t>
+  </si>
+  <si>
     <t>武汉市</t>
   </si>
   <si>
@@ -540,7 +537,7 @@
     <t>宜昌市</t>
   </si>
   <si>
-    <t>襄樊市</t>
+    <t>襄阳市</t>
   </si>
   <si>
     <t>鄂州市</t>
@@ -567,7 +564,16 @@
     <t>恩施土家族苗族自治州</t>
   </si>
   <si>
-    <t>省直辖行政单位</t>
+    <t>仙桃市</t>
+  </si>
+  <si>
+    <t>潜江市</t>
+  </si>
+  <si>
+    <t>天门市</t>
+  </si>
+  <si>
+    <t>神农架林区</t>
   </si>
   <si>
     <t>长沙市</t>
@@ -723,7 +729,55 @@
     <t>三亚市</t>
   </si>
   <si>
-    <t>省直辖县级行政单位</t>
+    <t>三沙市</t>
+  </si>
+  <si>
+    <t>儋州市</t>
+  </si>
+  <si>
+    <t>五指山市</t>
+  </si>
+  <si>
+    <t>琼海市</t>
+  </si>
+  <si>
+    <t>文昌市</t>
+  </si>
+  <si>
+    <t>万宁市</t>
+  </si>
+  <si>
+    <t>东方市</t>
+  </si>
+  <si>
+    <t>定安县</t>
+  </si>
+  <si>
+    <t>屯昌县</t>
+  </si>
+  <si>
+    <t>澄迈县</t>
+  </si>
+  <si>
+    <t>临高县</t>
+  </si>
+  <si>
+    <t>白沙黎族自治县</t>
+  </si>
+  <si>
+    <t>昌江黎族自治县</t>
+  </si>
+  <si>
+    <t>乐东黎族自治县</t>
+  </si>
+  <si>
+    <t>陵水黎族自治县</t>
+  </si>
+  <si>
+    <t>保亭黎族苗族自治县</t>
+  </si>
+  <si>
+    <t>琼中黎族苗族自治县</t>
   </si>
   <si>
     <t>重庆市</t>
@@ -804,15 +858,15 @@
     <t>安顺市</t>
   </si>
   <si>
-    <t>铜仁地区</t>
+    <t>毕节市</t>
+  </si>
+  <si>
+    <t>铜仁市</t>
   </si>
   <si>
     <t>黔西南布依族苗族自治州</t>
   </si>
   <si>
-    <t>毕节地区</t>
-  </si>
-  <si>
     <t>黔东南苗族侗族自治州</t>
   </si>
   <si>
@@ -837,7 +891,7 @@
     <t>丽江市</t>
   </si>
   <si>
-    <t>思茅市</t>
+    <t>普洱市</t>
   </si>
   <si>
     <t>临沧市</t>
@@ -870,24 +924,24 @@
     <t>拉萨市</t>
   </si>
   <si>
-    <t>昌都地区</t>
-  </si>
-  <si>
-    <t>山南地区</t>
-  </si>
-  <si>
-    <t>日喀则地区</t>
-  </si>
-  <si>
-    <t>那曲地区</t>
+    <t>日喀则市</t>
+  </si>
+  <si>
+    <t>昌都市</t>
+  </si>
+  <si>
+    <t>林芝市</t>
+  </si>
+  <si>
+    <t>山南市</t>
+  </si>
+  <si>
+    <t>那曲市</t>
   </si>
   <si>
     <t>阿里地区</t>
   </si>
   <si>
-    <t>林芝地区</t>
-  </si>
-  <si>
     <t>西安市</t>
   </si>
   <si>
@@ -963,7 +1017,7 @@
     <t>西宁市</t>
   </si>
   <si>
-    <t>海东地区</t>
+    <t>海东市</t>
   </si>
   <si>
     <t>海北藏族自治州</t>
@@ -1005,10 +1059,10 @@
     <t>克拉玛依市</t>
   </si>
   <si>
-    <t>吐鲁番地区</t>
-  </si>
-  <si>
-    <t>哈密地区</t>
+    <t>吐鲁番市</t>
+  </si>
+  <si>
+    <t>哈密市</t>
   </si>
   <si>
     <t>昌吉回族自治州</t>
@@ -1041,13 +1095,100 @@
     <t>阿勒泰地区</t>
   </si>
   <si>
-    <t>台湾省</t>
-  </si>
-  <si>
-    <t>香港特别行政区</t>
-  </si>
-  <si>
-    <t>澳门特别行政区</t>
+    <t>胡杨河市</t>
+  </si>
+  <si>
+    <t>石河子市</t>
+  </si>
+  <si>
+    <t>阿拉尔市</t>
+  </si>
+  <si>
+    <t>图木舒克市</t>
+  </si>
+  <si>
+    <t>五家渠市</t>
+  </si>
+  <si>
+    <t>北屯市</t>
+  </si>
+  <si>
+    <t>铁门关市</t>
+  </si>
+  <si>
+    <t>双河市</t>
+  </si>
+  <si>
+    <t>可克达拉市</t>
+  </si>
+  <si>
+    <t>昆玉市</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>新北市</t>
+  </si>
+  <si>
+    <t>台中市</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>桃园市</t>
+  </si>
+  <si>
+    <t>基隆市</t>
+  </si>
+  <si>
+    <t>新竹市</t>
+  </si>
+  <si>
+    <t>嘉义市</t>
+  </si>
+  <si>
+    <t>新竹县</t>
+  </si>
+  <si>
+    <t>宜兰县</t>
+  </si>
+  <si>
+    <t>苗栗县</t>
+  </si>
+  <si>
+    <t>彰化县</t>
+  </si>
+  <si>
+    <t>云林县</t>
+  </si>
+  <si>
+    <t>南投县</t>
+  </si>
+  <si>
+    <t>嘉义县</t>
+  </si>
+  <si>
+    <t>屏东县</t>
+  </si>
+  <si>
+    <t>台东县</t>
+  </si>
+  <si>
+    <t>花莲县</t>
+  </si>
+  <si>
+    <t>澎湖县</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>澳门</t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C344"/>
+  <dimension ref="A1:C391"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -2306,7 +2447,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>341400</v>
+        <v>341500</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -2317,7 +2458,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>341500</v>
+        <v>341600</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -2328,7 +2469,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>341600</v>
+        <v>341700</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -2339,7 +2480,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>341700</v>
+        <v>341800</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -2350,18 +2491,18 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>341800</v>
+        <v>350100</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
       <c r="C115">
-        <v>340000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>350100</v>
+        <v>350200</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
@@ -2372,7 +2513,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>350200</v>
+        <v>350300</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
@@ -2383,7 +2524,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>350300</v>
+        <v>350400</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -2394,7 +2535,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>350400</v>
+        <v>350500</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -2405,7 +2546,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>350500</v>
+        <v>350600</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -2416,7 +2557,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>350600</v>
+        <v>350700</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
@@ -2427,7 +2568,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>350700</v>
+        <v>350800</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -2438,7 +2579,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>350800</v>
+        <v>350900</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
@@ -2449,18 +2590,18 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>350900</v>
+        <v>360100</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
       <c r="C124">
-        <v>350000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>360100</v>
+        <v>360200</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -2471,7 +2612,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>360200</v>
+        <v>360300</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -2482,7 +2623,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>360300</v>
+        <v>360400</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -2493,7 +2634,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>360400</v>
+        <v>360500</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
@@ -2504,7 +2645,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>360500</v>
+        <v>360600</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -2515,7 +2656,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>360600</v>
+        <v>360700</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
@@ -2526,7 +2667,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>360700</v>
+        <v>360800</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
@@ -2537,7 +2678,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>360800</v>
+        <v>360900</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -2548,7 +2689,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>360900</v>
+        <v>361000</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -2559,7 +2700,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>361000</v>
+        <v>361100</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
@@ -2570,18 +2711,18 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>361100</v>
+        <v>370100</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
       </c>
       <c r="C135">
-        <v>360000</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>370100</v>
+        <v>370200</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -2592,7 +2733,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>370200</v>
+        <v>370300</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -2603,7 +2744,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>370300</v>
+        <v>370400</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -2614,7 +2755,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>370400</v>
+        <v>370500</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -2625,7 +2766,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>370500</v>
+        <v>370600</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -2636,7 +2777,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>370600</v>
+        <v>370700</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -2647,7 +2788,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>370700</v>
+        <v>370800</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -2658,7 +2799,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>370800</v>
+        <v>370900</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -2669,7 +2810,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>370900</v>
+        <v>371000</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -2680,7 +2821,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>371000</v>
+        <v>371100</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -2691,7 +2832,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>371100</v>
+        <v>371300</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -2702,7 +2843,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>371200</v>
+        <v>371400</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -2713,7 +2854,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>371300</v>
+        <v>371500</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -2724,7 +2865,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>371400</v>
+        <v>371600</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -2735,7 +2876,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>371500</v>
+        <v>371700</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -2746,29 +2887,29 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>371600</v>
+        <v>410100</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151">
-        <v>370000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>371700</v>
+        <v>410200</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152">
-        <v>370000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>410100</v>
+        <v>410300</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -2779,7 +2920,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>410200</v>
+        <v>410400</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -2790,7 +2931,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>410300</v>
+        <v>410500</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -2801,7 +2942,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>410400</v>
+        <v>410600</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -2812,7 +2953,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>410500</v>
+        <v>410700</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -2823,7 +2964,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>410600</v>
+        <v>410800</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -2834,7 +2975,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>410700</v>
+        <v>410900</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -2845,7 +2986,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>410800</v>
+        <v>411000</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -2856,7 +2997,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>410900</v>
+        <v>411100</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -2867,7 +3008,7 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>411000</v>
+        <v>411200</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -2878,7 +3019,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>411100</v>
+        <v>411300</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -2889,7 +3030,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>411200</v>
+        <v>411400</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -2900,7 +3041,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>411300</v>
+        <v>411500</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -2911,7 +3052,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>411400</v>
+        <v>411600</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -2922,7 +3063,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>411500</v>
+        <v>411700</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -2933,7 +3074,7 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>411600</v>
+        <v>419001</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -2944,18 +3085,18 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>411700</v>
+        <v>420100</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169">
-        <v>410000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>420100</v>
+        <v>420200</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -2966,7 +3107,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>420200</v>
+        <v>420300</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -2977,7 +3118,7 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>420300</v>
+        <v>420500</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -2988,7 +3129,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>420500</v>
+        <v>420600</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -2999,7 +3140,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>420600</v>
+        <v>420700</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3010,7 +3151,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>420700</v>
+        <v>420800</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3021,7 +3162,7 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>420800</v>
+        <v>420900</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -3032,7 +3173,7 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>420900</v>
+        <v>421000</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -3043,7 +3184,7 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>421000</v>
+        <v>421100</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3054,7 +3195,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>421100</v>
+        <v>421200</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3065,7 +3206,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>421200</v>
+        <v>421300</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -3076,7 +3217,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>421300</v>
+        <v>422800</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -3087,7 +3228,7 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>422800</v>
+        <v>429004</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -3098,7 +3239,7 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>429000</v>
+        <v>429005</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -3109,29 +3250,29 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>430100</v>
+        <v>429006</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184">
-        <v>430000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>430200</v>
+        <v>429021</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185">
-        <v>430000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>430300</v>
+        <v>430100</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -3142,7 +3283,7 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>430400</v>
+        <v>430200</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -3153,7 +3294,7 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>430500</v>
+        <v>430300</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -3164,7 +3305,7 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>430600</v>
+        <v>430400</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -3175,7 +3316,7 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>430700</v>
+        <v>430500</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -3186,7 +3327,7 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>430800</v>
+        <v>430600</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -3197,7 +3338,7 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>430900</v>
+        <v>430700</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -3208,7 +3349,7 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>431000</v>
+        <v>430800</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -3219,7 +3360,7 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>431100</v>
+        <v>430900</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -3230,7 +3371,7 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>431200</v>
+        <v>431000</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -3241,7 +3382,7 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>431300</v>
+        <v>431100</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -3252,7 +3393,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>433100</v>
+        <v>431200</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -3263,29 +3404,29 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>440100</v>
+        <v>431300</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198">
-        <v>440000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>440200</v>
+        <v>433100</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199">
-        <v>440000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>440300</v>
+        <v>440100</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -3296,7 +3437,7 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>440400</v>
+        <v>440200</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -3307,7 +3448,7 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>440500</v>
+        <v>440300</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -3318,7 +3459,7 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>440600</v>
+        <v>440400</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -3329,7 +3470,7 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>440700</v>
+        <v>440500</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -3340,7 +3481,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>440800</v>
+        <v>440600</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -3351,7 +3492,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>440900</v>
+        <v>440700</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -3362,7 +3503,7 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>441200</v>
+        <v>440800</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -3373,7 +3514,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>441300</v>
+        <v>440900</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -3384,7 +3525,7 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>441400</v>
+        <v>441200</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -3395,7 +3536,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>441500</v>
+        <v>441300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -3406,7 +3547,7 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>441600</v>
+        <v>441400</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -3417,7 +3558,7 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>441700</v>
+        <v>441500</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -3428,7 +3569,7 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>441800</v>
+        <v>441600</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -3439,7 +3580,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>441900</v>
+        <v>441700</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -3450,7 +3591,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>442000</v>
+        <v>441800</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -3461,7 +3602,7 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>445100</v>
+        <v>441900</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -3472,7 +3613,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>445200</v>
+        <v>442000</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -3483,7 +3624,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>445300</v>
+        <v>445100</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -3494,29 +3635,29 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>450100</v>
+        <v>445200</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219">
-        <v>450000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>450200</v>
+        <v>445300</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220">
-        <v>450000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>450300</v>
+        <v>450100</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -3527,7 +3668,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>450400</v>
+        <v>450200</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -3538,7 +3679,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>450500</v>
+        <v>450300</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -3549,7 +3690,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>450600</v>
+        <v>450400</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -3560,7 +3701,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>450700</v>
+        <v>450500</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -3571,7 +3712,7 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>450800</v>
+        <v>450600</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -3582,7 +3723,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>450900</v>
+        <v>450700</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -3593,7 +3734,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>451000</v>
+        <v>450800</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -3604,7 +3745,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>451100</v>
+        <v>450900</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
@@ -3615,7 +3756,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>451200</v>
+        <v>451000</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
@@ -3626,7 +3767,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>451300</v>
+        <v>451100</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
@@ -3637,7 +3778,7 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>451400</v>
+        <v>451200</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
@@ -3648,29 +3789,29 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>460100</v>
+        <v>451300</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
       </c>
       <c r="C233">
-        <v>460000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>460200</v>
+        <v>451400</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
       </c>
       <c r="C234">
-        <v>460000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>469000</v>
+        <v>460100</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
@@ -3681,230 +3822,230 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>500100</v>
+        <v>460200</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
       </c>
       <c r="C236">
-        <v>500000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>510100</v>
+        <v>460300</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
       </c>
       <c r="C237">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>510300</v>
+        <v>460400</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
       </c>
       <c r="C238">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>510400</v>
+        <v>469001</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
       </c>
       <c r="C239">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>510500</v>
+        <v>469002</v>
       </c>
       <c r="B240" t="s">
         <v>241</v>
       </c>
       <c r="C240">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>510600</v>
+        <v>469005</v>
       </c>
       <c r="B241" t="s">
         <v>242</v>
       </c>
       <c r="C241">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>510700</v>
+        <v>469006</v>
       </c>
       <c r="B242" t="s">
         <v>243</v>
       </c>
       <c r="C242">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>510800</v>
+        <v>469007</v>
       </c>
       <c r="B243" t="s">
         <v>244</v>
       </c>
       <c r="C243">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>510900</v>
+        <v>469021</v>
       </c>
       <c r="B244" t="s">
         <v>245</v>
       </c>
       <c r="C244">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>511000</v>
+        <v>469022</v>
       </c>
       <c r="B245" t="s">
         <v>246</v>
       </c>
       <c r="C245">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>511100</v>
+        <v>469023</v>
       </c>
       <c r="B246" t="s">
         <v>247</v>
       </c>
       <c r="C246">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>511300</v>
+        <v>469024</v>
       </c>
       <c r="B247" t="s">
         <v>248</v>
       </c>
       <c r="C247">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>511400</v>
+        <v>469025</v>
       </c>
       <c r="B248" t="s">
         <v>249</v>
       </c>
       <c r="C248">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>511500</v>
+        <v>469026</v>
       </c>
       <c r="B249" t="s">
         <v>250</v>
       </c>
       <c r="C249">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>511600</v>
+        <v>469027</v>
       </c>
       <c r="B250" t="s">
         <v>251</v>
       </c>
       <c r="C250">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>511700</v>
+        <v>469028</v>
       </c>
       <c r="B251" t="s">
         <v>252</v>
       </c>
       <c r="C251">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>511800</v>
+        <v>469029</v>
       </c>
       <c r="B252" t="s">
         <v>253</v>
       </c>
       <c r="C252">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>511900</v>
+        <v>469030</v>
       </c>
       <c r="B253" t="s">
         <v>254</v>
       </c>
       <c r="C253">
-        <v>510000</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>512000</v>
+        <v>500100</v>
       </c>
       <c r="B254" t="s">
         <v>255</v>
       </c>
       <c r="C254">
-        <v>510000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>513200</v>
+        <v>500200</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C255">
-        <v>510000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>513300</v>
+        <v>510100</v>
       </c>
       <c r="B256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C256">
         <v>510000</v>
@@ -3912,10 +4053,10 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>513400</v>
+        <v>510300</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C257">
         <v>510000</v>
@@ -3923,958 +4064,1475 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>520100</v>
+        <v>510400</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C258">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>520200</v>
+        <v>510500</v>
       </c>
       <c r="B259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C259">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>520300</v>
+        <v>510600</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C260">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>520400</v>
+        <v>510700</v>
       </c>
       <c r="B261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C261">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>522200</v>
+        <v>510800</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C262">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>522300</v>
+        <v>510900</v>
       </c>
       <c r="B263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C263">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>522400</v>
+        <v>511000</v>
       </c>
       <c r="B264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C264">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>522600</v>
+        <v>511100</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C265">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>522700</v>
+        <v>511300</v>
       </c>
       <c r="B266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C266">
-        <v>520000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>530100</v>
+        <v>511400</v>
       </c>
       <c r="B267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C267">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>530300</v>
+        <v>511500</v>
       </c>
       <c r="B268" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C268">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>530400</v>
+        <v>511600</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C269">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>530500</v>
+        <v>511700</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C270">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>530600</v>
+        <v>511800</v>
       </c>
       <c r="B271" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C271">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>530700</v>
+        <v>511900</v>
       </c>
       <c r="B272" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C272">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>530800</v>
+        <v>512000</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C273">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>530900</v>
+        <v>513200</v>
       </c>
       <c r="B274" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C274">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>532300</v>
+        <v>513300</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C275">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>532500</v>
+        <v>513400</v>
       </c>
       <c r="B276" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C276">
-        <v>530000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>532600</v>
+        <v>520100</v>
       </c>
       <c r="B277" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C277">
-        <v>530000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>532800</v>
+        <v>520200</v>
       </c>
       <c r="B278" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C278">
-        <v>530000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>532900</v>
+        <v>520300</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C279">
-        <v>530000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>533100</v>
+        <v>520400</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C280">
-        <v>530000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>533300</v>
+        <v>520500</v>
       </c>
       <c r="B281" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C281">
-        <v>530000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>533400</v>
+        <v>520600</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C282">
-        <v>530000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>540100</v>
+        <v>522300</v>
       </c>
       <c r="B283" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C283">
-        <v>540000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>542100</v>
+        <v>522600</v>
       </c>
       <c r="B284" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C284">
-        <v>540000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>542200</v>
+        <v>522700</v>
       </c>
       <c r="B285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C285">
-        <v>540000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>542300</v>
+        <v>530100</v>
       </c>
       <c r="B286" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C286">
-        <v>540000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>542400</v>
+        <v>530300</v>
       </c>
       <c r="B287" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C287">
-        <v>540000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>542500</v>
+        <v>530400</v>
       </c>
       <c r="B288" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C288">
-        <v>540000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>542600</v>
+        <v>530500</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C289">
-        <v>540000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>610100</v>
+        <v>530600</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C290">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>610200</v>
+        <v>530700</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C291">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>610300</v>
+        <v>530800</v>
       </c>
       <c r="B292" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C292">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>610400</v>
+        <v>530900</v>
       </c>
       <c r="B293" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C293">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>610500</v>
+        <v>532300</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C294">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>610600</v>
+        <v>532500</v>
       </c>
       <c r="B295" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C295">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>610700</v>
+        <v>532600</v>
       </c>
       <c r="B296" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C296">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>610800</v>
+        <v>532800</v>
       </c>
       <c r="B297" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C297">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>610900</v>
+        <v>532900</v>
       </c>
       <c r="B298" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C298">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>611000</v>
+        <v>533100</v>
       </c>
       <c r="B299" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C299">
-        <v>610000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>620100</v>
+        <v>533300</v>
       </c>
       <c r="B300" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C300">
-        <v>620000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>620200</v>
+        <v>533400</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C301">
-        <v>620000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>620300</v>
+        <v>540100</v>
       </c>
       <c r="B302" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C302">
-        <v>620000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>620400</v>
+        <v>540200</v>
       </c>
       <c r="B303" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C303">
-        <v>620000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>620500</v>
+        <v>540300</v>
       </c>
       <c r="B304" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C304">
-        <v>620000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>620600</v>
+        <v>540400</v>
       </c>
       <c r="B305" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C305">
-        <v>620000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>620700</v>
+        <v>540500</v>
       </c>
       <c r="B306" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C306">
-        <v>620000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>620800</v>
+        <v>540600</v>
       </c>
       <c r="B307" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C307">
-        <v>620000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>620900</v>
+        <v>542500</v>
       </c>
       <c r="B308" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C308">
-        <v>620000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>621000</v>
+        <v>610100</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C309">
-        <v>620000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>621100</v>
+        <v>610200</v>
       </c>
       <c r="B310" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C310">
-        <v>620000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>621200</v>
+        <v>610300</v>
       </c>
       <c r="B311" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C311">
-        <v>620000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>622900</v>
+        <v>610400</v>
       </c>
       <c r="B312" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C312">
-        <v>620000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>623000</v>
+        <v>610500</v>
       </c>
       <c r="B313" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C313">
-        <v>620000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>630100</v>
+        <v>610600</v>
       </c>
       <c r="B314" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C314">
-        <v>630000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>632100</v>
+        <v>610700</v>
       </c>
       <c r="B315" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C315">
-        <v>630000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>632200</v>
+        <v>610800</v>
       </c>
       <c r="B316" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C316">
-        <v>630000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>632300</v>
+        <v>610900</v>
       </c>
       <c r="B317" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C317">
-        <v>630000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>632500</v>
+        <v>611000</v>
       </c>
       <c r="B318" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C318">
-        <v>630000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>632600</v>
+        <v>620100</v>
       </c>
       <c r="B319" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C319">
-        <v>630000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>632700</v>
+        <v>620200</v>
       </c>
       <c r="B320" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C320">
-        <v>630000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>632800</v>
+        <v>620300</v>
       </c>
       <c r="B321" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C321">
-        <v>630000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>640100</v>
+        <v>620400</v>
       </c>
       <c r="B322" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C322">
-        <v>640000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>640200</v>
+        <v>620500</v>
       </c>
       <c r="B323" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C323">
-        <v>640000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>640300</v>
+        <v>620600</v>
       </c>
       <c r="B324" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C324">
-        <v>640000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>640400</v>
+        <v>620700</v>
       </c>
       <c r="B325" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C325">
-        <v>640000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>640500</v>
+        <v>620800</v>
       </c>
       <c r="B326" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C326">
-        <v>640000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>650100</v>
+        <v>620900</v>
       </c>
       <c r="B327" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C327">
-        <v>650000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>650200</v>
+        <v>621000</v>
       </c>
       <c r="B328" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C328">
-        <v>650000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>652100</v>
+        <v>621100</v>
       </c>
       <c r="B329" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C329">
-        <v>650000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>652200</v>
+        <v>621200</v>
       </c>
       <c r="B330" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C330">
-        <v>650000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>652300</v>
+        <v>622900</v>
       </c>
       <c r="B331" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C331">
-        <v>650000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>652700</v>
+        <v>623000</v>
       </c>
       <c r="B332" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C332">
-        <v>650000</v>
+        <v>620000</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>652800</v>
+        <v>630100</v>
       </c>
       <c r="B333" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C333">
-        <v>650000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>652900</v>
+        <v>630200</v>
       </c>
       <c r="B334" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C334">
-        <v>650000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>653000</v>
+        <v>632200</v>
       </c>
       <c r="B335" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C335">
-        <v>650000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>653100</v>
+        <v>632300</v>
       </c>
       <c r="B336" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C336">
-        <v>650000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>653200</v>
+        <v>632500</v>
       </c>
       <c r="B337" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C337">
-        <v>650000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>654000</v>
+        <v>632600</v>
       </c>
       <c r="B338" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C338">
-        <v>650000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>654200</v>
+        <v>632700</v>
       </c>
       <c r="B339" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C339">
-        <v>650000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>654300</v>
+        <v>632800</v>
       </c>
       <c r="B340" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C340">
-        <v>650000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>659000</v>
+        <v>640100</v>
       </c>
       <c r="B341" t="s">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="C341">
-        <v>650000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>710000</v>
+        <v>640200</v>
       </c>
       <c r="B342" t="s">
         <v>342</v>
       </c>
       <c r="C342">
-        <v>710000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>810000</v>
+        <v>640300</v>
       </c>
       <c r="B343" t="s">
         <v>343</v>
       </c>
       <c r="C343">
-        <v>810000</v>
+        <v>640000</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>820000</v>
+        <v>640400</v>
       </c>
       <c r="B344" t="s">
         <v>344</v>
       </c>
       <c r="C344">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>640500</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+      <c r="C345">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>650100</v>
+      </c>
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+      <c r="C346">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>650200</v>
+      </c>
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+      <c r="C347">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>650400</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>650500</v>
+      </c>
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+      <c r="C349">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>652300</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+      <c r="C350">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>652700</v>
+      </c>
+      <c r="B351" t="s">
+        <v>351</v>
+      </c>
+      <c r="C351">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>652800</v>
+      </c>
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+      <c r="C352">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>652900</v>
+      </c>
+      <c r="B353" t="s">
+        <v>353</v>
+      </c>
+      <c r="C353">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>653000</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+      <c r="C354">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>653100</v>
+      </c>
+      <c r="B355" t="s">
+        <v>355</v>
+      </c>
+      <c r="C355">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>653200</v>
+      </c>
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+      <c r="C356">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>654000</v>
+      </c>
+      <c r="B357" t="s">
+        <v>357</v>
+      </c>
+      <c r="C357">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>654200</v>
+      </c>
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+      <c r="C358">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>654300</v>
+      </c>
+      <c r="B359" t="s">
+        <v>359</v>
+      </c>
+      <c r="C359">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>659000</v>
+      </c>
+      <c r="B360" t="s">
+        <v>360</v>
+      </c>
+      <c r="C360">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>659001</v>
+      </c>
+      <c r="B361" t="s">
+        <v>361</v>
+      </c>
+      <c r="C361">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>659002</v>
+      </c>
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+      <c r="C362">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>659003</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+      <c r="C363">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>659004</v>
+      </c>
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+      <c r="C364">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>659005</v>
+      </c>
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+      <c r="C365">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>659006</v>
+      </c>
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+      <c r="C366">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>659007</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+      <c r="C367">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>659008</v>
+      </c>
+      <c r="B368" t="s">
+        <v>368</v>
+      </c>
+      <c r="C368">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>659009</v>
+      </c>
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+      <c r="C369">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>710100</v>
+      </c>
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+      <c r="C370">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>710200</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+      <c r="C371">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>710300</v>
+      </c>
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+      <c r="C372">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>710400</v>
+      </c>
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+      <c r="C373">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>710500</v>
+      </c>
+      <c r="B374" t="s">
+        <v>374</v>
+      </c>
+      <c r="C374">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>710600</v>
+      </c>
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+      <c r="C375">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>719001</v>
+      </c>
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+      <c r="C376">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>719002</v>
+      </c>
+      <c r="B377" t="s">
+        <v>377</v>
+      </c>
+      <c r="C377">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>719003</v>
+      </c>
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+      <c r="C378">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>719004</v>
+      </c>
+      <c r="B379" t="s">
+        <v>379</v>
+      </c>
+      <c r="C379">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>719005</v>
+      </c>
+      <c r="B380" t="s">
+        <v>380</v>
+      </c>
+      <c r="C380">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>719006</v>
+      </c>
+      <c r="B381" t="s">
+        <v>381</v>
+      </c>
+      <c r="C381">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>719007</v>
+      </c>
+      <c r="B382" t="s">
+        <v>382</v>
+      </c>
+      <c r="C382">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>719008</v>
+      </c>
+      <c r="B383" t="s">
+        <v>383</v>
+      </c>
+      <c r="C383">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>719009</v>
+      </c>
+      <c r="B384" t="s">
+        <v>384</v>
+      </c>
+      <c r="C384">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>719010</v>
+      </c>
+      <c r="B385" t="s">
+        <v>385</v>
+      </c>
+      <c r="C385">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>719011</v>
+      </c>
+      <c r="B386" t="s">
+        <v>386</v>
+      </c>
+      <c r="C386">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>719012</v>
+      </c>
+      <c r="B387" t="s">
+        <v>387</v>
+      </c>
+      <c r="C387">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>719013</v>
+      </c>
+      <c r="B388" t="s">
+        <v>388</v>
+      </c>
+      <c r="C388">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>719014</v>
+      </c>
+      <c r="B389" t="s">
+        <v>389</v>
+      </c>
+      <c r="C389">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>810000</v>
+      </c>
+      <c r="B390" t="s">
+        <v>390</v>
+      </c>
+      <c r="C390">
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>820000</v>
+      </c>
+      <c r="B391" t="s">
+        <v>391</v>
+      </c>
+      <c r="C391">
         <v>820000</v>
       </c>
     </row>
